--- a/Wirtschaftlichkeitsbetrachtung/Wirtschaftlichkeitsbetrachtung_JS.xlsx
+++ b/Wirtschaftlichkeitsbetrachtung/Wirtschaftlichkeitsbetrachtung_JS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\fu0\vdv-infos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\fu0\vdv.NRW-form\Wirtschaftlichkeitsbetrachtung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC25FFA-B564-4B8D-A28E-4196FB5A20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2264D0-D500-42ED-8B12-53783A7AE5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einsparungen NUTZEN" sheetId="3" r:id="rId1"/>
@@ -386,6 +386,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,10 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -446,16 +446,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -478,16 +478,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -515,7 +515,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -524,19 +524,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -623,28 +611,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -717,6 +693,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -724,7 +701,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="221613831"/>
         <c:axId val="372852119"/>
@@ -743,7 +719,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -775,7 +751,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -812,7 +788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -855,6 +831,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -862,7 +852,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -894,7 +884,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -954,7 +944,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1022,13 +1012,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1062,7 +1049,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1073,7 +1060,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1096,14 +1083,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1119,7 +1106,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1139,22 +1126,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1163,35 +1145,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1200,33 +1192,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1248,15 +1236,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1271,15 +1257,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1290,17 +1276,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1309,14 +1295,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1328,21 +1314,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1361,7 +1341,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1380,17 +1360,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1399,17 +1379,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1430,7 +1409,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1438,7 +1417,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1451,6 +1430,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1458,10 +1448,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1476,13 +1466,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1491,14 +1481,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1528,8 +1518,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1552,14 +1542,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1571,13 +1555,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>244904</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>37317</xdr:rowOff>
+      <xdr:rowOff>37316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>486756</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>113517</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1904,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC855FBE-6ED9-47B2-8B13-17E25362E1C6}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,16 +1984,16 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="13">
         <v>10331.25</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="13">
         <v>860.94</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="13">
         <v>197.92</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="13">
         <v>39.58</v>
       </c>
     </row>
@@ -2029,16 +2013,16 @@
       <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="13">
         <v>6198.75</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>516.55999999999995</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="13">
         <v>118.75</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="13">
         <v>23.75</v>
       </c>
     </row>
@@ -2055,13 +2039,13 @@
       <c r="F9" s="5">
         <v>80</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>6.67</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <v>1.53</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="13">
         <v>0.31</v>
       </c>
     </row>
@@ -2078,16 +2062,16 @@
       <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>198.08</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>16.510000000000002</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>3.79</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <v>0.76</v>
       </c>
     </row>
@@ -2096,16 +2080,16 @@
       <c r="E12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="14">
         <v>16808.080000000002</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <v>1384.17</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="16">
         <v>318.2</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="14">
         <v>63.64</v>
       </c>
     </row>
@@ -2160,24 +2144,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -2851,11 +2835,11 @@
       </c>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="12">
         <v>30</v>
       </c>
@@ -2867,11 +2851,11 @@
       </c>
     </row>
     <row r="21" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="12">
         <v>40</v>
       </c>
@@ -2884,21 +2868,21 @@
       </c>
     </row>
     <row r="22" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="12">
         <v>100</v>
       </c>
@@ -2928,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,26 +3181,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cc15d590-d7c3-47e8-94ab-b9dcf2edf942" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001504A21A69C3814F9E472FD50AD5D80E" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c31ffd672871ab58e6bedb72737d8e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7" xmlns:ns3="cc15d590-d7c3-47e8-94ab-b9dcf2edf942" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a30d642fbfc754554b3699a34a5d63" ns2:_="" ns3:_="">
     <xsd:import namespace="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7"/>
@@ -3465,26 +3429,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288CFEE5-DBD8-4E19-A013-B5F7C21C3264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7"/>
-    <ds:schemaRef ds:uri="cc15d590-d7c3-47e8-94ab-b9dcf2edf942"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86398774-94B1-4E92-A7CD-B0715DE3385E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cc15d590-d7c3-47e8-94ab-b9dcf2edf942" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{616F9179-0A73-4A98-899D-DEE2200C528D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3501,4 +3466,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86398774-94B1-4E92-A7CD-B0715DE3385E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288CFEE5-DBD8-4E19-A013-B5F7C21C3264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a3ca0bd0-a521-40f6-9754-8b9dda5b70c7"/>
+    <ds:schemaRef ds:uri="cc15d590-d7c3-47e8-94ab-b9dcf2edf942"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>